--- a/statistics/HistoricalDistanceData/historical_distance/Q15121730-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q15121730-en.xlsx
@@ -31,124 +31,124 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Passengers diverted to ONT try to wind way back to their destinations</t>
+  </si>
+  <si>
+    <t>LA airport attack: Paul Ciancia pleads not guilty</t>
+  </si>
+  <si>
+    <t>Suspected LAX gunman had his targets clearly in mind</t>
+  </si>
+  <si>
+    <t>H.R. 4802, Gerardo Hernandez Airport Security Act of 2014</t>
+  </si>
+  <si>
+    <t>LAX shooting: Notice of intent to seek death penalty</t>
+  </si>
+  <si>
+    <t>AP: LAX shooter opened fire while officers on break</t>
+  </si>
+  <si>
+    <t>Man who killed TSA officer at LAX in 2013 pleads guilty and avoids death penalty</t>
+  </si>
+  <si>
+    <t>TSA agent shot, killed at LAX, suspect in critical condition</t>
+  </si>
+  <si>
     <t>Horrific LAX Shooting Scene</t>
   </si>
   <si>
-    <t>LAX shooting: Notice of intent to seek death penalty</t>
+    <t>LAX Shooter Paul Anthony Ciancia's Personal Details Emerge</t>
   </si>
   <si>
     <t>LAX Shooting Rampage Trial Slated for 2016</t>
   </si>
   <si>
-    <t>Suspected LAX gunman had his targets clearly in mind</t>
-  </si>
-  <si>
-    <t>Passengers diverted to ONT try to wind way back to their destinations</t>
-  </si>
-  <si>
     <t>TSA agent shot at Los Angeles airport died in two to five minutes</t>
   </si>
   <si>
-    <t>TSA agent shot, killed at LAX, suspect in critical condition</t>
-  </si>
-  <si>
-    <t>H.R. 4802, Gerardo Hernandez Airport Security Act of 2014</t>
-  </si>
-  <si>
-    <t>LAX Shooter Paul Anthony Ciancia's Personal Details Emerge</t>
-  </si>
-  <si>
-    <t>AP: LAX shooter opened fire while officers on break</t>
-  </si>
-  <si>
-    <t>LA airport attack: Paul Ciancia pleads not guilty</t>
-  </si>
-  <si>
-    <t>Man who killed TSA officer at LAX in 2013 pleads guilty and avoids death penalty</t>
+    <t>2013-11-01T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2013-12-26T19:44:56UTC</t>
+  </si>
+  <si>
+    <t>2013-11-03T03:00:00UTC</t>
+  </si>
+  <si>
+    <t>2014-06-24T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2015-01-02T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2014-01-22T15:39:00UTC</t>
+  </si>
+  <si>
+    <t>2016-09-06T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2013-11-01T19:21:35UTC</t>
   </si>
   <si>
     <t>2013-11-02T00:59:09UTC</t>
   </si>
   <si>
-    <t>2015-01-02T00:00:00UTC</t>
+    <t>2013-11-01T17:43:26UTC</t>
   </si>
   <si>
     <t>2017-06-30T15:47:22UTC</t>
   </si>
   <si>
-    <t>2013-11-03T03:00:00UTC</t>
-  </si>
-  <si>
-    <t>2013-11-01T00:00:00UTC</t>
-  </si>
-  <si>
     <t>2013-11-20T21:20:00UTC</t>
   </si>
   <si>
-    <t>2013-11-01T19:21:35UTC</t>
-  </si>
-  <si>
-    <t>2014-06-24T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2013-11-01T17:43:26UTC</t>
-  </si>
-  <si>
-    <t>2014-01-22T15:39:00UTC</t>
-  </si>
-  <si>
-    <t>2013-12-26T19:44:56UTC</t>
-  </si>
-  <si>
-    <t>2016-09-06T00:00:00UTC</t>
+    <t>day_0</t>
+  </si>
+  <si>
+    <t>day_31_beyond</t>
+  </si>
+  <si>
+    <t>day_2_to_30</t>
   </si>
   <si>
     <t>day_1</t>
   </si>
   <si>
-    <t>day_31_beyond</t>
-  </si>
-  <si>
-    <t>day_2_to_30</t>
-  </si>
-  <si>
-    <t>day_0</t>
+    <t>https://web.archive.org/web/20131102211206/http://www.pe.com/local-news/local-news-headlines/20131101-some-flights-diverted-to-ont-after-lax-shooting.ece</t>
+  </si>
+  <si>
+    <t>https://www.bbc.co.uk/news/world-us-canada-25523003</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20131104213951/http://www.latimes.com/local/la-me-1103-lax-shooting-20131103,0,7342159.story#axzz2jmqKVQgo</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20140728020009/http://www.cbo.gov/publication/45476</t>
+  </si>
+  <si>
+    <t>http://documents.latimes.com/lax-shooting-notice-intent-seek-death-penalty/</t>
+  </si>
+  <si>
+    <t>http://www.cbsnews.com/news/ap-lax-shooter-opened-fire-while-officers-on-break/</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20160913111152/http://www.latimes.com/local/lanow/la-me-lax-shooter-20160906-snap-story.html</t>
+  </si>
+  <si>
+    <t>http://www.upi.com/Top_News/US/2013/11/01/Reports-Suspect-dies-TSA-agent-shot-killed-at-LAX-shooting/UPI-80811383326473/?spt=rln&amp;or=2</t>
   </si>
   <si>
     <t>https://web.archive.org/web/20131222160450/http://www.cnn.com/video/data/2.0/video/bestoftv/2013/11/02/bb-lax-shooting-scene-tim-daly.cnn.html</t>
   </si>
   <si>
-    <t>http://documents.latimes.com/lax-shooting-notice-intent-seek-death-penalty/</t>
+    <t>http://www.mediaite.com/online/lax-shooter-paul-anthony-ciancias-personal-details-emerge/</t>
   </si>
   <si>
     <t>http://www.nbclosangeles.com/news/local/LAX-TSA-Shooting-Rampage-Paul-Ciancia-Death-Penalty-287505621.html</t>
   </si>
   <si>
-    <t>https://web.archive.org/web/20131104213951/http://www.latimes.com/local/la-me-1103-lax-shooting-20131103,0,7342159.story#axzz2jmqKVQgo</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20131102211206/http://www.pe.com/local-news/local-news-headlines/20131101-some-flights-diverted-to-ont-after-lax-shooting.ece</t>
-  </si>
-  <si>
     <t>https://web.archive.org/web/20131121084229/http://www.latimes.com/local/la-me-1121-tsa-agent-20131121,0,3031589.story</t>
-  </si>
-  <si>
-    <t>http://www.upi.com/Top_News/US/2013/11/01/Reports-Suspect-dies-TSA-agent-shot-killed-at-LAX-shooting/UPI-80811383326473/?spt=rln&amp;or=2</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20140728020009/http://www.cbo.gov/publication/45476</t>
-  </si>
-  <si>
-    <t>http://www.mediaite.com/online/lax-shooter-paul-anthony-ciancias-personal-details-emerge/</t>
-  </si>
-  <si>
-    <t>http://www.cbsnews.com/news/ap-lax-shooter-opened-fire-while-officers-on-break/</t>
-  </si>
-  <si>
-    <t>https://www.bbc.co.uk/news/world-us-canada-25523003</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20160913111152/http://www.latimes.com/local/lanow/la-me-lax-shooter-20160906-snap-story.html</t>
   </si>
 </sst>
 </file>
@@ -550,7 +550,7 @@
         <v>17</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
@@ -567,7 +567,7 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>427</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
         <v>30</v>
@@ -584,10 +584,10 @@
         <v>19</v>
       </c>
       <c r="C4">
-        <v>1337</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>35</v>
@@ -601,10 +601,10 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>235</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>36</v>
@@ -618,10 +618,10 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>427</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>37</v>
@@ -635,10 +635,10 @@
         <v>22</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>38</v>
@@ -652,10 +652,10 @@
         <v>23</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>39</v>
@@ -669,10 +669,10 @@
         <v>24</v>
       </c>
       <c r="C9">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>40</v>
@@ -686,7 +686,7 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>32</v>
@@ -703,10 +703,10 @@
         <v>26</v>
       </c>
       <c r="C11">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>42</v>
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="C12">
-        <v>55</v>
+        <v>1337</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
@@ -737,10 +737,10 @@
         <v>28</v>
       </c>
       <c r="C13">
-        <v>1040</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>44</v>
@@ -750,8 +750,8 @@
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4" location="axzz2jmqKVQgo"/>
+    <hyperlink ref="E4" r:id="rId3" location="axzz2jmqKVQgo"/>
+    <hyperlink ref="E5" r:id="rId4"/>
     <hyperlink ref="E6" r:id="rId5"/>
     <hyperlink ref="E7" r:id="rId6"/>
     <hyperlink ref="E8" r:id="rId7"/>
